--- a/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>GSX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79900</v>
+        <v>181600</v>
       </c>
       <c r="E8" s="3">
-        <v>89400</v>
+        <v>130900</v>
       </c>
       <c r="F8" s="3">
-        <v>38600</v>
+        <v>78000</v>
       </c>
       <c r="G8" s="3">
-        <v>26200</v>
+        <v>87200</v>
       </c>
       <c r="H8" s="3">
-        <v>14200</v>
+        <v>37700</v>
       </c>
       <c r="I8" s="3">
+        <v>25500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22500</v>
+        <v>39600</v>
       </c>
       <c r="E9" s="3">
-        <v>40800</v>
+        <v>27400</v>
       </c>
       <c r="F9" s="3">
-        <v>23500</v>
+        <v>21900</v>
       </c>
       <c r="G9" s="3">
-        <v>8300</v>
+        <v>25600</v>
       </c>
       <c r="H9" s="3">
-        <v>5400</v>
+        <v>11500</v>
       </c>
       <c r="I9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57400</v>
+        <v>142000</v>
       </c>
       <c r="E10" s="3">
-        <v>48600</v>
+        <v>103400</v>
       </c>
       <c r="F10" s="3">
-        <v>15100</v>
+        <v>56000</v>
       </c>
       <c r="G10" s="3">
-        <v>17800</v>
+        <v>61500</v>
       </c>
       <c r="H10" s="3">
-        <v>8800</v>
+        <v>26200</v>
       </c>
       <c r="I10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8200</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="3">
-        <v>10300</v>
+        <v>11700</v>
       </c>
       <c r="F12" s="3">
-        <v>8700</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="3">
-        <v>3800</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>8500</v>
       </c>
       <c r="I12" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="J12" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K12" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,13 +904,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-8600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -885,23 +924,29 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>81500</v>
+        <v>160100</v>
       </c>
       <c r="E17" s="3">
-        <v>80900</v>
+        <v>107400</v>
       </c>
       <c r="F17" s="3">
-        <v>32500</v>
+        <v>79500</v>
       </c>
       <c r="G17" s="3">
-        <v>22700</v>
+        <v>78900</v>
       </c>
       <c r="H17" s="3">
-        <v>14200</v>
+        <v>31700</v>
       </c>
       <c r="I17" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1600</v>
+        <v>21500</v>
       </c>
       <c r="E18" s="3">
-        <v>8500</v>
+        <v>23500</v>
       </c>
       <c r="F18" s="3">
-        <v>6100</v>
+        <v>-1500</v>
       </c>
       <c r="G18" s="3">
-        <v>3400</v>
+        <v>8200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1075,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,26 +1123,32 @@
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6400</v>
-      </c>
       <c r="G23" s="3">
-        <v>3700</v>
+        <v>9100</v>
       </c>
       <c r="H23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4900</v>
-      </c>
       <c r="G26" s="3">
-        <v>3200</v>
+        <v>7000</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="I26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3100</v>
-      </c>
       <c r="G27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3100</v>
-      </c>
       <c r="G33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3100</v>
-      </c>
       <c r="G35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,25 +1705,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4600</v>
+        <v>79100</v>
       </c>
       <c r="E41" s="3">
-        <v>8600</v>
+        <v>10400</v>
       </c>
       <c r="F41" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
+        <v>4500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>10</v>
@@ -1563,25 +1736,31 @@
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>145600</v>
+        <v>140400</v>
       </c>
       <c r="E42" s="3">
-        <v>242000</v>
+        <v>206200</v>
       </c>
       <c r="F42" s="3">
-        <v>36500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
+        <v>142000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>236000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>35600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1592,26 +1771,32 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,25 +1841,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27000</v>
+        <v>54800</v>
       </c>
       <c r="E45" s="3">
-        <v>21300</v>
+        <v>36600</v>
       </c>
       <c r="F45" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
+        <v>26400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
@@ -1679,25 +1876,31 @@
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177200</v>
+        <v>274300</v>
       </c>
       <c r="E46" s="3">
-        <v>271900</v>
+        <v>253200</v>
       </c>
       <c r="F46" s="3">
-        <v>52200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
+        <v>172900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>265200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>50900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>10</v>
@@ -1708,26 +1911,32 @@
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>152600</v>
+        <v>163600</v>
       </c>
       <c r="E47" s="3">
+        <v>166300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>148800</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1737,25 +1946,31 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38700</v>
+        <v>126300</v>
       </c>
       <c r="E48" s="3">
-        <v>35600</v>
+        <v>48500</v>
       </c>
       <c r="F48" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
+        <v>37700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>34700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>10800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>10</v>
@@ -1766,13 +1981,19 @@
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>100</v>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1780,11 +2001,11 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,25 +2086,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8000</v>
+        <v>21800</v>
       </c>
       <c r="E52" s="3">
-        <v>4600</v>
+        <v>7000</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
+        <v>7800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,25 +2156,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>376500</v>
+        <v>586100</v>
       </c>
       <c r="E54" s="3">
-        <v>312900</v>
+        <v>475100</v>
       </c>
       <c r="F54" s="3">
-        <v>68000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
+        <v>367300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>305200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>66400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,8 +2256,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,25 +2291,31 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>144700</v>
+        <v>257000</v>
       </c>
       <c r="E59" s="3">
-        <v>95600</v>
+        <v>229100</v>
       </c>
       <c r="F59" s="3">
-        <v>60400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
+        <v>141100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>93300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>58900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
@@ -2053,25 +2326,31 @@
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144700</v>
+        <v>257000</v>
       </c>
       <c r="E60" s="3">
-        <v>95600</v>
+        <v>229100</v>
       </c>
       <c r="F60" s="3">
-        <v>60400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
+        <v>141100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>93300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>58900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>10</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,25 +2396,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21800</v>
+        <v>87500</v>
       </c>
       <c r="E62" s="3">
-        <v>23500</v>
+        <v>28000</v>
       </c>
       <c r="F62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
+        <v>21300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,25 +2536,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>166500</v>
+        <v>344400</v>
       </c>
       <c r="E66" s="3">
-        <v>119100</v>
+        <v>257100</v>
       </c>
       <c r="F66" s="3">
-        <v>66400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
+        <v>162400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>116200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>64700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>68300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>66600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,25 +2726,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-64200</v>
+        <v>-17500</v>
       </c>
       <c r="E72" s="3">
-        <v>-64500</v>
+        <v>-38200</v>
       </c>
       <c r="F72" s="3">
-        <v>-66800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
+        <v>-62600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-65200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,25 +2866,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>210000</v>
+        <v>241600</v>
       </c>
       <c r="E76" s="3">
-        <v>193800</v>
+        <v>218000</v>
       </c>
       <c r="F76" s="3">
-        <v>-66600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
+        <v>204900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>189000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-65000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>3100</v>
-      </c>
       <c r="G81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>181600</v>
+        <v>188500</v>
       </c>
       <c r="E8" s="3">
-        <v>130900</v>
+        <v>135800</v>
       </c>
       <c r="F8" s="3">
-        <v>78000</v>
+        <v>80900</v>
       </c>
       <c r="G8" s="3">
-        <v>87200</v>
+        <v>90400</v>
       </c>
       <c r="H8" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="I8" s="3">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="J8" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="K8" s="3">
         <v>9900</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39600</v>
+        <v>41100</v>
       </c>
       <c r="E9" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="F9" s="3">
-        <v>21900</v>
+        <v>22800</v>
       </c>
       <c r="G9" s="3">
-        <v>25600</v>
+        <v>26600</v>
       </c>
       <c r="H9" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="I9" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="J9" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K9" s="3">
         <v>3800</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>142000</v>
+        <v>147300</v>
       </c>
       <c r="E10" s="3">
-        <v>103400</v>
+        <v>107300</v>
       </c>
       <c r="F10" s="3">
-        <v>56000</v>
+        <v>58100</v>
       </c>
       <c r="G10" s="3">
-        <v>61500</v>
+        <v>63800</v>
       </c>
       <c r="H10" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="I10" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="J10" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="K10" s="3">
         <v>6100</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="E12" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="F12" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="G12" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="H12" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="I12" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K12" s="3">
         <v>2200</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-8600</v>
+        <v>-8900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>160100</v>
+        <v>166200</v>
       </c>
       <c r="E17" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="F17" s="3">
-        <v>79500</v>
+        <v>82500</v>
       </c>
       <c r="G17" s="3">
-        <v>78900</v>
+        <v>81900</v>
       </c>
       <c r="H17" s="3">
-        <v>31700</v>
+        <v>32900</v>
       </c>
       <c r="I17" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="J17" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="K17" s="3">
         <v>10000</v>
@@ -1033,22 +1033,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="E18" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G18" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="H18" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I18" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1083,13 +1083,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
         <v>800</v>
@@ -1098,7 +1098,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I21" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
@@ -1188,22 +1188,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23300</v>
+        <v>24200</v>
       </c>
       <c r="E23" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="F23" s="3">
         <v>-600</v>
       </c>
       <c r="G23" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H23" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I23" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
@@ -1223,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E24" s="3">
         <v>1100</v>
@@ -1232,13 +1232,13 @@
         <v>-800</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H24" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20800</v>
+        <v>21600</v>
       </c>
       <c r="E26" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H26" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I26" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1328,19 +1328,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="E27" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="F27" s="3">
         <v>300</v>
       </c>
       <c r="G27" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H27" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I27" s="3">
         <v>1900</v>
@@ -1503,13 +1503,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
         <v>-800</v>
@@ -1518,7 +1518,7 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1538,19 +1538,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="E33" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="F33" s="3">
         <v>300</v>
       </c>
       <c r="G33" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H33" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I33" s="3">
         <v>1900</v>
@@ -1608,19 +1608,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="E35" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="F35" s="3">
         <v>300</v>
       </c>
       <c r="G35" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H35" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I35" s="3">
         <v>1900</v>
@@ -1713,19 +1713,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79100</v>
+        <v>82100</v>
       </c>
       <c r="E41" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="F41" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G41" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="H41" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>10</v>
@@ -1748,19 +1748,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>140400</v>
+        <v>145700</v>
       </c>
       <c r="E42" s="3">
-        <v>206200</v>
+        <v>214000</v>
       </c>
       <c r="F42" s="3">
-        <v>142000</v>
+        <v>147400</v>
       </c>
       <c r="G42" s="3">
-        <v>236000</v>
+        <v>244900</v>
       </c>
       <c r="H42" s="3">
-        <v>35600</v>
+        <v>36900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
@@ -1853,19 +1853,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54800</v>
+        <v>56900</v>
       </c>
       <c r="E45" s="3">
-        <v>36600</v>
+        <v>38000</v>
       </c>
       <c r="F45" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="G45" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="H45" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
@@ -1888,19 +1888,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>274300</v>
+        <v>284700</v>
       </c>
       <c r="E46" s="3">
-        <v>253200</v>
+        <v>262700</v>
       </c>
       <c r="F46" s="3">
-        <v>172900</v>
+        <v>179400</v>
       </c>
       <c r="G46" s="3">
-        <v>265200</v>
+        <v>275200</v>
       </c>
       <c r="H46" s="3">
-        <v>50900</v>
+        <v>52800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>10</v>
@@ -1923,13 +1923,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>163600</v>
+        <v>169800</v>
       </c>
       <c r="E47" s="3">
-        <v>166300</v>
+        <v>172600</v>
       </c>
       <c r="F47" s="3">
-        <v>148800</v>
+        <v>154400</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -1958,19 +1958,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>126300</v>
+        <v>131100</v>
       </c>
       <c r="E48" s="3">
-        <v>48500</v>
+        <v>50400</v>
       </c>
       <c r="F48" s="3">
-        <v>37700</v>
+        <v>39200</v>
       </c>
       <c r="G48" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="H48" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>10</v>
@@ -2098,19 +2098,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="E52" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="F52" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="G52" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H52" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
@@ -2168,19 +2168,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>586100</v>
+        <v>608200</v>
       </c>
       <c r="E54" s="3">
-        <v>475100</v>
+        <v>493000</v>
       </c>
       <c r="F54" s="3">
-        <v>367300</v>
+        <v>381100</v>
       </c>
       <c r="G54" s="3">
-        <v>305200</v>
+        <v>316700</v>
       </c>
       <c r="H54" s="3">
-        <v>66400</v>
+        <v>68900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
@@ -2303,19 +2303,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257000</v>
+        <v>266600</v>
       </c>
       <c r="E59" s="3">
-        <v>229100</v>
+        <v>237800</v>
       </c>
       <c r="F59" s="3">
-        <v>141100</v>
+        <v>146400</v>
       </c>
       <c r="G59" s="3">
-        <v>93300</v>
+        <v>96800</v>
       </c>
       <c r="H59" s="3">
-        <v>58900</v>
+        <v>61100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
@@ -2338,19 +2338,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>257000</v>
+        <v>266600</v>
       </c>
       <c r="E60" s="3">
-        <v>229100</v>
+        <v>237800</v>
       </c>
       <c r="F60" s="3">
-        <v>141100</v>
+        <v>146400</v>
       </c>
       <c r="G60" s="3">
-        <v>93300</v>
+        <v>96800</v>
       </c>
       <c r="H60" s="3">
-        <v>58900</v>
+        <v>61100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>10</v>
@@ -2408,19 +2408,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>87500</v>
+        <v>90800</v>
       </c>
       <c r="E62" s="3">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="F62" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="G62" s="3">
-        <v>22900</v>
+        <v>23800</v>
       </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2548,19 +2548,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>344400</v>
+        <v>357400</v>
       </c>
       <c r="E66" s="3">
-        <v>257100</v>
+        <v>266800</v>
       </c>
       <c r="F66" s="3">
-        <v>162400</v>
+        <v>168500</v>
       </c>
       <c r="G66" s="3">
-        <v>116200</v>
+        <v>120600</v>
       </c>
       <c r="H66" s="3">
-        <v>64700</v>
+        <v>67200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>66600</v>
+        <v>69100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2738,19 +2738,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-17500</v>
+        <v>-18100</v>
       </c>
       <c r="E72" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="F72" s="3">
-        <v>-62600</v>
+        <v>-65000</v>
       </c>
       <c r="G72" s="3">
-        <v>-62900</v>
+        <v>-65200</v>
       </c>
       <c r="H72" s="3">
-        <v>-65200</v>
+        <v>-67600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
@@ -2878,19 +2878,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>241600</v>
+        <v>250700</v>
       </c>
       <c r="E76" s="3">
-        <v>218000</v>
+        <v>226200</v>
       </c>
       <c r="F76" s="3">
-        <v>204900</v>
+        <v>212600</v>
       </c>
       <c r="G76" s="3">
-        <v>189000</v>
+        <v>196100</v>
       </c>
       <c r="H76" s="3">
-        <v>-65000</v>
+        <v>-67400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
@@ -2988,19 +2988,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="E81" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="F81" s="3">
         <v>300</v>
       </c>
       <c r="G81" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H81" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I81" s="3">
         <v>1900</v>

--- a/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>GSX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>188500</v>
+        <v>299000</v>
       </c>
       <c r="E8" s="3">
-        <v>135800</v>
+        <v>251000</v>
       </c>
       <c r="F8" s="3">
-        <v>80900</v>
+        <v>197400</v>
       </c>
       <c r="G8" s="3">
-        <v>90400</v>
+        <v>142200</v>
       </c>
       <c r="H8" s="3">
-        <v>39100</v>
+        <v>84700</v>
       </c>
       <c r="I8" s="3">
+        <v>94700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K8" s="3">
         <v>26500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41100</v>
+        <v>76400</v>
       </c>
       <c r="E9" s="3">
-        <v>28500</v>
+        <v>54900</v>
       </c>
       <c r="F9" s="3">
-        <v>22800</v>
+        <v>43100</v>
       </c>
       <c r="G9" s="3">
-        <v>26600</v>
+        <v>29800</v>
       </c>
       <c r="H9" s="3">
-        <v>11900</v>
+        <v>23800</v>
       </c>
       <c r="I9" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K9" s="3">
         <v>8400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>147300</v>
+        <v>222600</v>
       </c>
       <c r="E10" s="3">
-        <v>107300</v>
+        <v>196200</v>
       </c>
       <c r="F10" s="3">
-        <v>58100</v>
+        <v>154300</v>
       </c>
       <c r="G10" s="3">
-        <v>63800</v>
+        <v>112400</v>
       </c>
       <c r="H10" s="3">
-        <v>27200</v>
+        <v>60900</v>
       </c>
       <c r="I10" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K10" s="3">
         <v>18100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14400</v>
+        <v>33500</v>
       </c>
       <c r="E12" s="3">
-        <v>12100</v>
+        <v>21300</v>
       </c>
       <c r="F12" s="3">
-        <v>8300</v>
+        <v>15100</v>
       </c>
       <c r="G12" s="3">
-        <v>10400</v>
+        <v>12700</v>
       </c>
       <c r="H12" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="I12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1700</v>
       </c>
       <c r="M12" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,19 +944,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>-7800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-9300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -930,23 +970,29 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>166200</v>
+        <v>441800</v>
       </c>
       <c r="E17" s="3">
-        <v>111500</v>
+        <v>262000</v>
       </c>
       <c r="F17" s="3">
-        <v>82500</v>
+        <v>174100</v>
       </c>
       <c r="G17" s="3">
-        <v>81900</v>
+        <v>116700</v>
       </c>
       <c r="H17" s="3">
-        <v>32900</v>
+        <v>86400</v>
       </c>
       <c r="I17" s="3">
+        <v>85800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K17" s="3">
         <v>23000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22300</v>
+        <v>-142800</v>
       </c>
       <c r="E18" s="3">
-        <v>24300</v>
+        <v>-11000</v>
       </c>
       <c r="F18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>25500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6200</v>
-      </c>
       <c r="I18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1143,51 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>800</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1129,26 +1203,32 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1262,96 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24200</v>
+        <v>-140200</v>
       </c>
       <c r="E23" s="3">
-        <v>26400</v>
+        <v>-7400</v>
       </c>
       <c r="F23" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>27600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>6400</v>
-      </c>
       <c r="I23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
-        <v>1100</v>
+        <v>-10400</v>
       </c>
       <c r="F24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21600</v>
+        <v>-141800</v>
       </c>
       <c r="E26" s="3">
-        <v>25200</v>
+        <v>3000</v>
       </c>
       <c r="F26" s="3">
+        <v>22600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>26400</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>5000</v>
-      </c>
       <c r="I26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>21500</v>
+        <v>-141900</v>
       </c>
       <c r="E27" s="3">
-        <v>22700</v>
+        <v>2800</v>
       </c>
       <c r="F27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3100</v>
-      </c>
       <c r="I27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2100</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21500</v>
+        <v>-141900</v>
       </c>
       <c r="E33" s="3">
-        <v>22700</v>
+        <v>2800</v>
       </c>
       <c r="F33" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3100</v>
-      </c>
       <c r="I33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21500</v>
+        <v>-141900</v>
       </c>
       <c r="E35" s="3">
-        <v>22700</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3100</v>
-      </c>
       <c r="I35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,31 +1879,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82100</v>
+        <v>28600</v>
       </c>
       <c r="E41" s="3">
-        <v>10700</v>
+        <v>34300</v>
       </c>
       <c r="F41" s="3">
-        <v>4700</v>
+        <v>86000</v>
       </c>
       <c r="G41" s="3">
-        <v>8700</v>
+        <v>11300</v>
       </c>
       <c r="H41" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
+        <v>4900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
@@ -1742,31 +1916,37 @@
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>145700</v>
+        <v>211000</v>
       </c>
       <c r="E42" s="3">
-        <v>214000</v>
+        <v>326200</v>
       </c>
       <c r="F42" s="3">
-        <v>147400</v>
+        <v>152600</v>
       </c>
       <c r="G42" s="3">
-        <v>244900</v>
+        <v>224100</v>
       </c>
       <c r="H42" s="3">
-        <v>36900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
+        <v>154300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>256500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>38700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -1777,31 +1957,37 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
@@ -1812,31 +1998,37 @@
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>10500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1847,31 +2039,37 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56900</v>
+        <v>68200</v>
       </c>
       <c r="E45" s="3">
-        <v>38000</v>
+        <v>82100</v>
       </c>
       <c r="F45" s="3">
-        <v>27400</v>
+        <v>59600</v>
       </c>
       <c r="G45" s="3">
-        <v>21500</v>
+        <v>39800</v>
       </c>
       <c r="H45" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
+        <v>28700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
@@ -1882,31 +2080,37 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>284700</v>
+        <v>315400</v>
       </c>
       <c r="E46" s="3">
-        <v>262700</v>
+        <v>453100</v>
       </c>
       <c r="F46" s="3">
-        <v>179400</v>
+        <v>298200</v>
       </c>
       <c r="G46" s="3">
         <v>275200</v>
       </c>
       <c r="H46" s="3">
-        <v>52800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
+        <v>187900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>288300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>55300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>10</v>
@@ -1917,32 +2121,38 @@
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>169800</v>
+        <v>84500</v>
       </c>
       <c r="E47" s="3">
-        <v>172600</v>
+        <v>87000</v>
       </c>
       <c r="F47" s="3">
-        <v>154400</v>
+        <v>177800</v>
       </c>
       <c r="G47" s="3">
+        <v>180800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>161700</v>
+      </c>
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1952,31 +2162,37 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>131100</v>
+        <v>207600</v>
       </c>
       <c r="E48" s="3">
-        <v>50400</v>
+        <v>169500</v>
       </c>
       <c r="F48" s="3">
-        <v>39200</v>
+        <v>137300</v>
       </c>
       <c r="G48" s="3">
-        <v>36000</v>
+        <v>52800</v>
       </c>
       <c r="H48" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
+        <v>41000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
@@ -1987,19 +2203,25 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="3">
-        <v>100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2007,11 +2229,11 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
+      <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,31 +2326,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22600</v>
+        <v>31400</v>
       </c>
       <c r="E52" s="3">
-        <v>7300</v>
+        <v>34200</v>
       </c>
       <c r="F52" s="3">
-        <v>8100</v>
+        <v>23700</v>
       </c>
       <c r="G52" s="3">
-        <v>4700</v>
+        <v>7600</v>
       </c>
       <c r="H52" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
+        <v>8500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,31 +2408,37 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>608200</v>
+        <v>639000</v>
       </c>
       <c r="E54" s="3">
-        <v>493000</v>
+        <v>743800</v>
       </c>
       <c r="F54" s="3">
-        <v>381100</v>
+        <v>637000</v>
       </c>
       <c r="G54" s="3">
-        <v>316700</v>
+        <v>516400</v>
       </c>
       <c r="H54" s="3">
-        <v>68900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
+        <v>399200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>331700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>72100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,8 +2524,14 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,31 +2565,37 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>266600</v>
+        <v>430600</v>
       </c>
       <c r="E59" s="3">
-        <v>237800</v>
+        <v>419600</v>
       </c>
       <c r="F59" s="3">
-        <v>146400</v>
+        <v>279300</v>
       </c>
       <c r="G59" s="3">
-        <v>96800</v>
+        <v>249100</v>
       </c>
       <c r="H59" s="3">
-        <v>61100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
+        <v>153400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>64000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -2332,31 +2606,37 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>266600</v>
+        <v>430600</v>
       </c>
       <c r="E60" s="3">
-        <v>237800</v>
+        <v>419600</v>
       </c>
       <c r="F60" s="3">
-        <v>146400</v>
+        <v>279300</v>
       </c>
       <c r="G60" s="3">
-        <v>96800</v>
+        <v>249100</v>
       </c>
       <c r="H60" s="3">
-        <v>61100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
+        <v>153400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>64000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,31 +2688,37 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>90800</v>
+        <v>109700</v>
       </c>
       <c r="E62" s="3">
-        <v>29000</v>
+        <v>88200</v>
       </c>
       <c r="F62" s="3">
-        <v>22100</v>
+        <v>95100</v>
       </c>
       <c r="G62" s="3">
-        <v>23800</v>
+        <v>30400</v>
       </c>
       <c r="H62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+        <v>23100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,31 +2852,37 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>357400</v>
+        <v>540400</v>
       </c>
       <c r="E66" s="3">
-        <v>266800</v>
+        <v>507800</v>
       </c>
       <c r="F66" s="3">
-        <v>168500</v>
+        <v>374400</v>
       </c>
       <c r="G66" s="3">
-        <v>120600</v>
+        <v>279500</v>
       </c>
       <c r="H66" s="3">
-        <v>67200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
+        <v>176500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>70400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>69100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>72400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,31 +3074,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18100</v>
+        <v>-158000</v>
       </c>
       <c r="E72" s="3">
-        <v>-39600</v>
+        <v>-16200</v>
       </c>
       <c r="F72" s="3">
-        <v>-65000</v>
+        <v>-19000</v>
       </c>
       <c r="G72" s="3">
-        <v>-65200</v>
+        <v>-41500</v>
       </c>
       <c r="H72" s="3">
-        <v>-67600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
+        <v>-68100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-70800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,31 +3238,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>250700</v>
+        <v>98600</v>
       </c>
       <c r="E76" s="3">
-        <v>226200</v>
+        <v>236000</v>
       </c>
       <c r="F76" s="3">
-        <v>212600</v>
+        <v>262600</v>
       </c>
       <c r="G76" s="3">
-        <v>196100</v>
+        <v>236900</v>
       </c>
       <c r="H76" s="3">
-        <v>-67400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
+        <v>222700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>205400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-70600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21500</v>
+        <v>-141900</v>
       </c>
       <c r="E81" s="3">
-        <v>22700</v>
+        <v>2800</v>
       </c>
       <c r="F81" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3100</v>
-      </c>
       <c r="I81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,17 +3456,23 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3268,17 +3702,23 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3318,17 +3760,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3423,17 +3883,23 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3613,17 +4105,23 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3648,17 +4146,23 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3683,13 +4187,19 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>GSX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>299000</v>
+        <v>337800</v>
       </c>
       <c r="E8" s="3">
-        <v>251000</v>
+        <v>300300</v>
       </c>
       <c r="F8" s="3">
-        <v>197400</v>
+        <v>252100</v>
       </c>
       <c r="G8" s="3">
-        <v>142200</v>
+        <v>198200</v>
       </c>
       <c r="H8" s="3">
-        <v>84700</v>
+        <v>142800</v>
       </c>
       <c r="I8" s="3">
-        <v>94700</v>
+        <v>85100</v>
       </c>
       <c r="J8" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K8" s="3">
         <v>41000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>76400</v>
+        <v>94200</v>
       </c>
       <c r="E9" s="3">
-        <v>54900</v>
+        <v>76700</v>
       </c>
       <c r="F9" s="3">
-        <v>43100</v>
+        <v>55100</v>
       </c>
       <c r="G9" s="3">
-        <v>29800</v>
+        <v>43300</v>
       </c>
       <c r="H9" s="3">
-        <v>23800</v>
+        <v>29900</v>
       </c>
       <c r="I9" s="3">
-        <v>27900</v>
+        <v>23900</v>
       </c>
       <c r="J9" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K9" s="3">
         <v>12500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>222600</v>
+        <v>243600</v>
       </c>
       <c r="E10" s="3">
-        <v>196200</v>
+        <v>223600</v>
       </c>
       <c r="F10" s="3">
-        <v>154300</v>
+        <v>197000</v>
       </c>
       <c r="G10" s="3">
-        <v>112400</v>
+        <v>155000</v>
       </c>
       <c r="H10" s="3">
-        <v>60900</v>
+        <v>112900</v>
       </c>
       <c r="I10" s="3">
-        <v>66900</v>
+        <v>61200</v>
       </c>
       <c r="J10" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K10" s="3">
         <v>28500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33500</v>
+        <v>42000</v>
       </c>
       <c r="E12" s="3">
-        <v>21300</v>
+        <v>33700</v>
       </c>
       <c r="F12" s="3">
-        <v>15100</v>
+        <v>21400</v>
       </c>
       <c r="G12" s="3">
-        <v>12700</v>
+        <v>15200</v>
       </c>
       <c r="H12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I12" s="3">
         <v>8700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,22 +966,25 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7800</v>
+        <v>-9600</v>
       </c>
       <c r="E14" s="3">
-        <v>-13500</v>
+        <v>-7900</v>
       </c>
       <c r="F14" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>-13600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-9400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -976,8 +995,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -985,14 +1004,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>441800</v>
+        <v>434600</v>
       </c>
       <c r="E17" s="3">
-        <v>262000</v>
+        <v>443700</v>
       </c>
       <c r="F17" s="3">
-        <v>174100</v>
+        <v>263100</v>
       </c>
       <c r="G17" s="3">
-        <v>116700</v>
+        <v>174800</v>
       </c>
       <c r="H17" s="3">
-        <v>86400</v>
+        <v>117200</v>
       </c>
       <c r="I17" s="3">
-        <v>85800</v>
+        <v>86700</v>
       </c>
       <c r="J17" s="3">
+        <v>86100</v>
+      </c>
+      <c r="K17" s="3">
         <v>34400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-142800</v>
+        <v>-96800</v>
       </c>
       <c r="E18" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11000</v>
       </c>
-      <c r="F18" s="3">
-        <v>23300</v>
-      </c>
       <c r="G18" s="3">
-        <v>25500</v>
+        <v>23400</v>
       </c>
       <c r="H18" s="3">
-        <v>-1600</v>
+        <v>25600</v>
       </c>
       <c r="I18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1203,32 +1239,35 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
+      <c r="H21" s="3">
+        <v>29600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140200</v>
+        <v>-95200</v>
       </c>
       <c r="E23" s="3">
-        <v>-7400</v>
+        <v>-140800</v>
       </c>
       <c r="F23" s="3">
-        <v>25300</v>
+        <v>-7500</v>
       </c>
       <c r="G23" s="3">
-        <v>27600</v>
+        <v>25400</v>
       </c>
       <c r="H23" s="3">
+        <v>27800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>9800</v>
-      </c>
       <c r="J23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
-        <v>-10400</v>
-      </c>
       <c r="F24" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-141800</v>
+        <v>-96100</v>
       </c>
       <c r="E26" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
-        <v>22600</v>
-      </c>
       <c r="G26" s="3">
-        <v>26400</v>
+        <v>22700</v>
       </c>
       <c r="H26" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>7600</v>
-      </c>
       <c r="J26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-141900</v>
+        <v>-95800</v>
       </c>
       <c r="E27" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
-        <v>22500</v>
-      </c>
       <c r="G27" s="3">
-        <v>23800</v>
+        <v>22600</v>
       </c>
       <c r="H27" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-141900</v>
+        <v>-95800</v>
       </c>
       <c r="E33" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
-        <v>22500</v>
-      </c>
       <c r="G33" s="3">
-        <v>23800</v>
+        <v>22600</v>
       </c>
       <c r="H33" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-141900</v>
+        <v>-95800</v>
       </c>
       <c r="E35" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
-        <v>22500</v>
-      </c>
       <c r="G35" s="3">
-        <v>23800</v>
+        <v>22600</v>
       </c>
       <c r="H35" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28600</v>
+        <v>54300</v>
       </c>
       <c r="E41" s="3">
-        <v>34300</v>
+        <v>28700</v>
       </c>
       <c r="F41" s="3">
-        <v>86000</v>
+        <v>34400</v>
       </c>
       <c r="G41" s="3">
+        <v>86300</v>
+      </c>
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
-        <v>9100</v>
-      </c>
       <c r="J41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1922,35 +2008,38 @@
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>211000</v>
+        <v>1120100</v>
       </c>
       <c r="E42" s="3">
-        <v>326200</v>
+        <v>212000</v>
       </c>
       <c r="F42" s="3">
-        <v>152600</v>
+        <v>327600</v>
       </c>
       <c r="G42" s="3">
-        <v>224100</v>
+        <v>153300</v>
       </c>
       <c r="H42" s="3">
-        <v>154300</v>
+        <v>225100</v>
       </c>
       <c r="I42" s="3">
-        <v>256500</v>
+        <v>155000</v>
       </c>
       <c r="J42" s="3">
+        <v>257700</v>
+      </c>
+      <c r="K42" s="3">
         <v>38700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1977,8 +2069,8 @@
       <c r="F43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1987,11 +2079,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2004,19 +2096,22 @@
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E44" s="3">
         <v>7600</v>
       </c>
-      <c r="E44" s="3">
-        <v>10500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
+      <c r="F44" s="3">
+        <v>10600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>10</v>
@@ -2030,8 +2125,8 @@
       <c r="J44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68200</v>
+        <v>110400</v>
       </c>
       <c r="E45" s="3">
-        <v>82100</v>
+        <v>68500</v>
       </c>
       <c r="F45" s="3">
-        <v>59600</v>
+        <v>82500</v>
       </c>
       <c r="G45" s="3">
-        <v>39800</v>
+        <v>59900</v>
       </c>
       <c r="H45" s="3">
-        <v>28700</v>
+        <v>39900</v>
       </c>
       <c r="I45" s="3">
-        <v>22600</v>
+        <v>28800</v>
       </c>
       <c r="J45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>315400</v>
+        <v>1292100</v>
       </c>
       <c r="E46" s="3">
-        <v>453100</v>
+        <v>316800</v>
       </c>
       <c r="F46" s="3">
-        <v>298200</v>
+        <v>455100</v>
       </c>
       <c r="G46" s="3">
-        <v>275200</v>
+        <v>299500</v>
       </c>
       <c r="H46" s="3">
-        <v>187900</v>
+        <v>276400</v>
       </c>
       <c r="I46" s="3">
-        <v>288300</v>
+        <v>188700</v>
       </c>
       <c r="J46" s="3">
+        <v>289500</v>
+      </c>
+      <c r="K46" s="3">
         <v>55300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2127,35 +2228,38 @@
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84500</v>
+        <v>81100</v>
       </c>
       <c r="E47" s="3">
-        <v>87000</v>
+        <v>84900</v>
       </c>
       <c r="F47" s="3">
-        <v>177800</v>
+        <v>87400</v>
       </c>
       <c r="G47" s="3">
-        <v>180800</v>
+        <v>178600</v>
       </c>
       <c r="H47" s="3">
-        <v>161700</v>
+        <v>181500</v>
       </c>
       <c r="I47" s="3">
+        <v>162400</v>
+      </c>
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>207600</v>
+        <v>230800</v>
       </c>
       <c r="E48" s="3">
-        <v>169500</v>
+        <v>208500</v>
       </c>
       <c r="F48" s="3">
-        <v>137300</v>
+        <v>170200</v>
       </c>
       <c r="G48" s="3">
-        <v>52800</v>
+        <v>137900</v>
       </c>
       <c r="H48" s="3">
-        <v>41000</v>
+        <v>53000</v>
       </c>
       <c r="I48" s="3">
-        <v>37700</v>
+        <v>41200</v>
       </c>
       <c r="J48" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2223,8 +2333,8 @@
       <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2235,8 +2345,8 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31400</v>
+        <v>28600</v>
       </c>
       <c r="E52" s="3">
-        <v>34200</v>
+        <v>31600</v>
       </c>
       <c r="F52" s="3">
-        <v>23700</v>
+        <v>34400</v>
       </c>
       <c r="G52" s="3">
-        <v>7600</v>
+        <v>23800</v>
       </c>
       <c r="H52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I52" s="3">
         <v>8500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>639000</v>
+        <v>1632600</v>
       </c>
       <c r="E54" s="3">
-        <v>743800</v>
+        <v>641800</v>
       </c>
       <c r="F54" s="3">
-        <v>637000</v>
+        <v>747000</v>
       </c>
       <c r="G54" s="3">
-        <v>516400</v>
+        <v>639800</v>
       </c>
       <c r="H54" s="3">
-        <v>399200</v>
+        <v>518600</v>
       </c>
       <c r="I54" s="3">
-        <v>331700</v>
+        <v>400900</v>
       </c>
       <c r="J54" s="3">
+        <v>333200</v>
+      </c>
+      <c r="K54" s="3">
         <v>72100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>430600</v>
+        <v>641300</v>
       </c>
       <c r="E59" s="3">
-        <v>419600</v>
+        <v>432500</v>
       </c>
       <c r="F59" s="3">
-        <v>279300</v>
+        <v>421400</v>
       </c>
       <c r="G59" s="3">
-        <v>249100</v>
+        <v>280500</v>
       </c>
       <c r="H59" s="3">
-        <v>153400</v>
+        <v>250100</v>
       </c>
       <c r="I59" s="3">
-        <v>101400</v>
+        <v>154000</v>
       </c>
       <c r="J59" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K59" s="3">
         <v>64000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>430600</v>
+        <v>641300</v>
       </c>
       <c r="E60" s="3">
-        <v>419600</v>
+        <v>432500</v>
       </c>
       <c r="F60" s="3">
-        <v>279300</v>
+        <v>421400</v>
       </c>
       <c r="G60" s="3">
-        <v>249100</v>
+        <v>280500</v>
       </c>
       <c r="H60" s="3">
-        <v>153400</v>
+        <v>250100</v>
       </c>
       <c r="I60" s="3">
-        <v>101400</v>
+        <v>154000</v>
       </c>
       <c r="J60" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K60" s="3">
         <v>64000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,35 +2836,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>109700</v>
+        <v>115900</v>
       </c>
       <c r="E62" s="3">
-        <v>88200</v>
+        <v>110200</v>
       </c>
       <c r="F62" s="3">
-        <v>95100</v>
+        <v>88600</v>
       </c>
       <c r="G62" s="3">
-        <v>30400</v>
+        <v>95500</v>
       </c>
       <c r="H62" s="3">
-        <v>23100</v>
+        <v>30500</v>
       </c>
       <c r="I62" s="3">
-        <v>24900</v>
+        <v>23200</v>
       </c>
       <c r="J62" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>540400</v>
+        <v>757200</v>
       </c>
       <c r="E66" s="3">
-        <v>507800</v>
+        <v>542700</v>
       </c>
       <c r="F66" s="3">
-        <v>374400</v>
+        <v>510000</v>
       </c>
       <c r="G66" s="3">
-        <v>279500</v>
+        <v>376000</v>
       </c>
       <c r="H66" s="3">
-        <v>176500</v>
+        <v>280700</v>
       </c>
       <c r="I66" s="3">
-        <v>126300</v>
+        <v>177300</v>
       </c>
       <c r="J66" s="3">
+        <v>126800</v>
+      </c>
+      <c r="K66" s="3">
         <v>70400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3022,11 +3189,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>72400</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-158000</v>
+        <v>-254500</v>
       </c>
       <c r="E72" s="3">
+        <v>-158700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16200</v>
       </c>
-      <c r="F72" s="3">
-        <v>-19000</v>
-      </c>
       <c r="G72" s="3">
-        <v>-41500</v>
+        <v>-19100</v>
       </c>
       <c r="H72" s="3">
-        <v>-68100</v>
+        <v>-41700</v>
       </c>
       <c r="I72" s="3">
         <v>-68300</v>
       </c>
       <c r="J72" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-70800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>98600</v>
+        <v>875400</v>
       </c>
       <c r="E76" s="3">
-        <v>236000</v>
+        <v>99000</v>
       </c>
       <c r="F76" s="3">
-        <v>262600</v>
+        <v>237100</v>
       </c>
       <c r="G76" s="3">
-        <v>236900</v>
+        <v>263800</v>
       </c>
       <c r="H76" s="3">
-        <v>222700</v>
+        <v>237900</v>
       </c>
       <c r="I76" s="3">
-        <v>205400</v>
+        <v>223700</v>
       </c>
       <c r="J76" s="3">
+        <v>206300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-70600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-141900</v>
+        <v>-95800</v>
       </c>
       <c r="E81" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
-        <v>22500</v>
-      </c>
       <c r="G81" s="3">
-        <v>23800</v>
+        <v>22600</v>
       </c>
       <c r="H81" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3462,8 +3660,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>10</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3708,8 +3924,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3766,8 +3986,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3889,8 +4118,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4111,8 +4356,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4152,8 +4400,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4193,13 +4444,16 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
     </row>
